--- a/finalp/src/main/webapp/resources/db/PRODUCT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PRODUCT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>PRODUCT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,21 @@
   <si>
     <t>15213869176096</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/24(토)</t>
+  </si>
+  <si>
+    <t>3/31(토)</t>
+  </si>
+  <si>
+    <t>4/2(토)</t>
+  </si>
+  <si>
+    <t>4/9(토)</t>
+  </si>
+  <si>
+    <t>추후 구성예정입니다.</t>
   </si>
 </sst>
 </file>
@@ -450,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,6 +613,91 @@
       </c>
       <c r="E8">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1521400021560</v>
+      </c>
+      <c r="B9">
+        <v>15213998388299</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>12000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1521400050501</v>
+      </c>
+      <c r="B10">
+        <v>15213998388299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>12000</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1521400064632</v>
+      </c>
+      <c r="B11">
+        <v>15213998388299</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>12000</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1521400086626</v>
+      </c>
+      <c r="B12">
+        <v>15213998388299</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>12000</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1521400218940</v>
+      </c>
+      <c r="B13">
+        <v>152140018016610</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>13000</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/finalp/src/main/webapp/resources/db/PRODUCT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PRODUCT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectWorkspace\finalp\src\main\webapp\resources\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28032" windowHeight="12552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>PRODUCT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,13 +116,38 @@
     <t>4/9(토)</t>
   </si>
   <si>
-    <t>추후 구성예정입니다.</t>
+    <t>1521400021560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1521400050501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1521400064632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1521400086626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15213998388299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15213998388299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15213998388299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,6 +204,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -221,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,18 +501,18 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -513,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -530,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -547,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -564,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -581,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -598,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -615,12 +648,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1521400021560</v>
-      </c>
-      <c r="B9">
-        <v>15213998388299</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -632,12 +665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1521400050501</v>
-      </c>
-      <c r="B10">
-        <v>15213998388299</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -649,12 +682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1521400064632</v>
-      </c>
-      <c r="B11">
-        <v>15213998388299</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -666,12 +699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1521400086626</v>
-      </c>
-      <c r="B12">
-        <v>15213998388299</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -683,27 +716,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1521400218940</v>
-      </c>
-      <c r="B13">
-        <v>152140018016610</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>13000</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -713,7 +733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -726,7 +746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/finalp/src/main/webapp/resources/db/PRODUCT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PRODUCT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>PRODUCT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,112 +43,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홍삼정 선물세트(A) - 10개입</t>
-  </si>
-  <si>
-    <t>홍삼정 선물세트(B) - 20개입</t>
-  </si>
-  <si>
-    <t>1인</t>
-  </si>
-  <si>
-    <t>2인</t>
-  </si>
-  <si>
-    <t>3인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">알로쥬스 프리미엄 </t>
-  </si>
-  <si>
-    <t>알류쥬스 프리미엄 세트(5개입)</t>
-  </si>
-  <si>
-    <t>1521387037613</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521387082272</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521387174094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521387183623</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521387194563</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521387281439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521387304069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15213872400788</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15213871179087</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15213869176096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/24(토)</t>
-  </si>
-  <si>
-    <t>3/31(토)</t>
-  </si>
-  <si>
-    <t>4/2(토)</t>
-  </si>
-  <si>
-    <t>4/9(토)</t>
-  </si>
-  <si>
-    <t>1521400021560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521400050501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521400064632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521400086626</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15213998388299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15213998388299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15213998388299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1521541315482</t>
+  </si>
+  <si>
+    <t>152154108741610</t>
+  </si>
+  <si>
+    <t>할머니의 요리책+구매자분의 이름</t>
+  </si>
+  <si>
+    <t>1521541350504</t>
+  </si>
+  <si>
+    <t>할머니의 요리책+구매자분의 이름(x2)</t>
+  </si>
+  <si>
+    <t>1521597494713</t>
+  </si>
+  <si>
+    <t>152159737628112</t>
+  </si>
+  <si>
+    <t>링콘 SET A (링콘본체1+스트랩1+필름지1)</t>
+  </si>
+  <si>
+    <t>1521597631073</t>
+  </si>
+  <si>
+    <t>링콘 SET B (링콘본체2+스트랩2+필름지2)</t>
+  </si>
+  <si>
+    <t>1521597641121</t>
+  </si>
+  <si>
+    <t>링콘 SET C (링콘본체3+스트랩3+필름지3)</t>
+  </si>
+  <si>
+    <t>1521597654690</t>
+  </si>
+  <si>
+    <t>링콘 SET D (링콘본체5+스트랩5+필름지5)</t>
+  </si>
+  <si>
+    <t>1521598062594</t>
+  </si>
+  <si>
+    <t>152159784017713</t>
+  </si>
+  <si>
+    <t>이지오프 싱글 SET(이지오프 소화용구 1개+거치대 1개)</t>
+  </si>
+  <si>
+    <t>1521598070074</t>
+  </si>
+  <si>
+    <t>이지오프 더블 SET(이지오프 소화용구 2개+거치대 2개)</t>
+  </si>
+  <si>
+    <t>1521598080137</t>
+  </si>
+  <si>
+    <t>이지오프 트리플 SET(이지오프 소화용구 3개+거치대 3개)</t>
+  </si>
+  <si>
+    <t>1521598919090</t>
+  </si>
+  <si>
+    <t>152159859912314</t>
+  </si>
+  <si>
+    <t>SHORT 2단+3단</t>
+  </si>
+  <si>
+    <t>1521598931361</t>
+  </si>
+  <si>
+    <t>SHORT 2단+MEDIUM</t>
+  </si>
+  <si>
+    <t>1521598936657</t>
+  </si>
+  <si>
+    <t>SHORT 3단+MIXED</t>
+  </si>
+  <si>
+    <t>1521598950889</t>
+  </si>
+  <si>
+    <t>SHORT 4단+ MEDIUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +152,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Dialog"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,8 +186,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -512,7 +507,7 @@
     <col min="4" max="4" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,196 +524,226 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>17000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D4" s="1">
+        <v>12900</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39900</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>59900</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>99900</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>15000</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>27000</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D8" s="1">
+        <v>37500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>20000</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>30000</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>5000</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>22000</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>99000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19900</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>29900</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>12000</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="D13" s="1">
+        <v>29900</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>12000</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>12000</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>12000</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -733,7 +758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -746,7 +771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
